--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Desktop\GitHub\BLJ2022_uek216_lift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BAEE63-38D4-44DB-BBBF-97586E0EC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0F3293-A92D-4936-B1C7-81075A983D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15075" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -554,13 +554,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="4" max="5" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Desktop\GitHub\BLJ2022_uek216_lift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgi\BLJ2022_uek216_lift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BAEE63-38D4-44DB-BBBF-97586E0EC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D23C7FA-DA86-4BB0-923E-A755CC3F2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Nr.</t>
   </si>
@@ -54,23 +54,124 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>dreht sich genug</t>
+  </si>
+  <si>
+    <t>erhalte es die informationen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wenn licht an sagt es mir </t>
+  </si>
+  <si>
+    <t>esp hat strom</t>
+  </si>
+  <si>
+    <t>funktioniert der server/ licht sensor</t>
+  </si>
+  <si>
+    <t>Bekommt das ESP32 Strom?</t>
+  </si>
+  <si>
+    <t>ESP32 mit PowerBank verbunden</t>
+  </si>
+  <si>
+    <t>Rotes Licht am Board wird eingeschaltet</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Lichtsensor oben an das Lift Licht gestellt</t>
+  </si>
+  <si>
+    <t>Sensor erkennt wenn das Licht an ist</t>
+  </si>
+  <si>
+    <t>In Bearbeitung</t>
+  </si>
+  <si>
+    <t>2te Versuch</t>
+  </si>
+  <si>
+    <t>Werden Infos (Licht) erhaltet?</t>
+  </si>
+  <si>
+    <t>Lift gerufen</t>
+  </si>
+  <si>
+    <t>Funktioniert der (1.) Sensor?</t>
+  </si>
+  <si>
+    <t>Auf der Webseite steht "Lift ist hier"</t>
+  </si>
+  <si>
+    <t>Wird nicht angezeigt</t>
+  </si>
+  <si>
+    <t>Funktionier der Aktor richtig?</t>
+  </si>
+  <si>
+    <t>Auf der Webseite "Lift rufen" gedruckt</t>
+  </si>
+  <si>
+    <t>Lift wird gerufen und kommt zu den 6. Stock</t>
+  </si>
+  <si>
+    <t>Lift wird gerufen</t>
+  </si>
+  <si>
+    <t>Dreht sich die Flügel vom Motor?</t>
+  </si>
+  <si>
+    <t>Es dreht bis der Knopf gedruck wird und retour</t>
+  </si>
+  <si>
+    <t>Dreht sich zu viel</t>
+  </si>
+  <si>
+    <t>Daten Übermittlung zu langsam</t>
+  </si>
+  <si>
+    <t>Kabeln verkürzt &amp; Breadboard an die Wand</t>
+  </si>
+  <si>
+    <t>.... 2 sensor</t>
+  </si>
+  <si>
+    <t>Licht wurde nicht erkannt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Lift ist nicht hier" "Lift ist hier" </t>
+  </si>
+  <si>
+    <t>Daten schneller übertragen worden</t>
+  </si>
+  <si>
+    <t>Sensor erkennt wenn das Licht an ist (oder zu langsam erkannt)</t>
+  </si>
+  <si>
+    <t>Sobald der Sensor das Licht erkannt hat OK</t>
+  </si>
+  <si>
+    <t>"Lift ist hier" wurde angezeigt</t>
+  </si>
+  <si>
+    <t>Drehwinkel und Position von Flügel angepasst</t>
+  </si>
+  <si>
+    <t>Hat sich korrekte Winkel gedreht und retour</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,21 +213,6 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color theme="1"/>
       </left>
       <right style="medium">
@@ -154,19 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -187,59 +260,81 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
       <top style="medium">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
-        <color theme="1"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -551,58 +646,247 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="4" max="5" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="4.31640625" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
+    <col min="4" max="4" width="72.6796875" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="10" max="10" width="39.953125" customWidth="1"/>
+    <col min="11" max="11" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgi\BLJ2022_uek216_lift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D23C7FA-DA86-4BB0-923E-A755CC3F2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2DB408-F09B-4883-B5A3-2E89280970B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Nr.</t>
   </si>
@@ -83,33 +83,15 @@
     <t>OK</t>
   </si>
   <si>
-    <t>Lichtsensor oben an das Lift Licht gestellt</t>
-  </si>
-  <si>
-    <t>Sensor erkennt wenn das Licht an ist</t>
-  </si>
-  <si>
     <t>In Bearbeitung</t>
   </si>
   <si>
-    <t>2te Versuch</t>
-  </si>
-  <si>
-    <t>Werden Infos (Licht) erhaltet?</t>
-  </si>
-  <si>
-    <t>Lift gerufen</t>
-  </si>
-  <si>
     <t>Funktioniert der (1.) Sensor?</t>
   </si>
   <si>
     <t>Auf der Webseite steht "Lift ist hier"</t>
   </si>
   <si>
-    <t>Wird nicht angezeigt</t>
-  </si>
-  <si>
     <t>Funktionier der Aktor richtig?</t>
   </si>
   <si>
@@ -137,21 +119,9 @@
     <t>Kabeln verkürzt &amp; Breadboard an die Wand</t>
   </si>
   <si>
-    <t>.... 2 sensor</t>
-  </si>
-  <si>
-    <t>Licht wurde nicht erkannt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Lift ist nicht hier" "Lift ist hier" </t>
-  </si>
-  <si>
     <t>Daten schneller übertragen worden</t>
   </si>
   <si>
-    <t>Sensor erkennt wenn das Licht an ist (oder zu langsam erkannt)</t>
-  </si>
-  <si>
     <t>Sobald der Sensor das Licht erkannt hat OK</t>
   </si>
   <si>
@@ -162,13 +132,64 @@
   </si>
   <si>
     <t>Hat sich korrekte Winkel gedreht und retour</t>
+  </si>
+  <si>
+    <t>Funktioniert der (2.) Sensor?</t>
+  </si>
+  <si>
+    <t>Braucht zu lang zum anzeigen</t>
+  </si>
+  <si>
+    <t>Sensor am rechten Lift montiert</t>
+  </si>
+  <si>
+    <t>Infos vom Sensor wird am Programm übertragen</t>
+  </si>
+  <si>
+    <t>Infos wurden übertragen</t>
+  </si>
+  <si>
+    <t>Werden Infos (Sensor) erhaltet?</t>
+  </si>
+  <si>
+    <t>Rechter Lift gerufen</t>
+  </si>
+  <si>
+    <t>Sensor am linken lift montiert</t>
+  </si>
+  <si>
+    <t>Infos wurden nicht übertragen</t>
+  </si>
+  <si>
+    <t>Linker Lift gerufen</t>
+  </si>
+  <si>
+    <t>Werden Infos (2. Sensor) erhaltet?</t>
+  </si>
+  <si>
+    <t>Pins umgestellt</t>
+  </si>
+  <si>
+    <t>Lösungsweg</t>
+  </si>
+  <si>
+    <t>"Lift ist hier" und "Lift ist nicht hier", haben sich abgewechselt</t>
+  </si>
+  <si>
+    <t>Auf Node Red ein zweites Text Feld für den Linken Lift eingebaut</t>
+  </si>
+  <si>
+    <t>Infos der beiden Lift wurden erhaltet und wurden angezeigt</t>
+  </si>
+  <si>
+    <t>Beim linker Lift steht "Lift ist hier"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,8 +197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,25 +347,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -660,207 +702,261 @@
     <col min="4" max="4" width="72.6796875" customWidth="1"/>
     <col min="5" max="5" width="30.453125" customWidth="1"/>
     <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="9" max="9" width="5.1796875" customWidth="1"/>
     <col min="10" max="10" width="39.953125" customWidth="1"/>
     <col min="11" max="11" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="14">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="14">
+        <v>6</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="14">
+        <v>7</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A8" s="11">
-        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.75">

--- a/Testprotokoll.xlsx
+++ b/Testprotokoll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgi\BLJ2022_uek216_lift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Desktop\GitHub\BLJ2022_uek216_lift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2DB408-F09B-4883-B5A3-2E89280970B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34247600-69BA-4E6C-A91B-6F693F0B9C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15075" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,24 +690,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="68" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.31640625" customWidth="1"/>
-    <col min="2" max="2" width="29.81640625" customWidth="1"/>
-    <col min="3" max="3" width="39.26953125" customWidth="1"/>
-    <col min="4" max="4" width="72.6796875" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.1796875" customWidth="1"/>
-    <col min="10" max="10" width="39.953125" customWidth="1"/>
-    <col min="11" max="11" width="38.453125" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.77734375" customWidth="1"/>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+    <col min="4" max="4" width="45.109375" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="9" max="9" width="5.21875" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:12" s="12" customFormat="1" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -739,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:12" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -771,7 +771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -803,7 +803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -867,7 +867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -919,7 +919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -939,7 +939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:12" ht="28.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -959,27 +959,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>10</v>
       </c>
